--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2326.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2326.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.167935083345573</v>
+        <v>1.292685389518738</v>
       </c>
       <c r="B1">
-        <v>2.915819037806083</v>
+        <v>1.445991158485413</v>
       </c>
       <c r="C1">
-        <v>1.169278237763539</v>
+        <v>1.313401341438293</v>
       </c>
       <c r="D1">
-        <v>0.7940127404916949</v>
+        <v>1.443878293037415</v>
       </c>
       <c r="E1">
-        <v>0.6639135459115488</v>
+        <v>1.122377038002014</v>
       </c>
     </row>
   </sheetData>
